--- a/data/trans_camb/P28A_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P28A_1_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-11,62</t>
+          <t>-12,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,45</t>
+          <t>-10,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-24,69</t>
+          <t>-24,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-11,02</t>
+          <t>-6,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,06</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>-16,62</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-16,25</t>
+          <t>-9,16</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>-5,84</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-8,5</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-1,71</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-20,59</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-8,19</t>
+          <t>-20,41</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,43; 0,16</t>
+          <t>-22,92; -1,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,41; 4,74</t>
+          <t>-21,96; 0,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-36,2; -13,96</t>
+          <t>-33,82; -12,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,53; 2,63</t>
+          <t>-16,35; 4,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 6,17</t>
+          <t>-12,11; 8,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 15,21</t>
+          <t>-25,66; -7,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,55; -5,76</t>
+          <t>-16,93; -1,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 7,36</t>
+          <t>-13,52; 1,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-16,14; -0,69</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-10,34; 6,53</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-28,69; -13,4</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-16,82; 1,3</t>
+          <t>-27,25; -13,04</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-28,16%</t>
+          <t>-29,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-18,05%</t>
+          <t>-25,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-59,85%</t>
+          <t>-58,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-26,72%</t>
+          <t>-16,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,45%</t>
+          <t>-3,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>-44,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-43,21%</t>
+          <t>-23,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-13,2%</t>
+          <t>-14,97%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-21,51%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-4,33%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-52,1%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-20,72%</t>
+          <t>-52,27%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-47,78; 2,26</t>
+          <t>-50,04; -3,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-40,82; 14,0</t>
+          <t>-47,44; 2,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-76,1; -36,41</t>
+          <t>-74,94; -34,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-49,84; 7,61</t>
+          <t>-37,75; 14,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,45; 20,04</t>
+          <t>-28,09; 27,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 45,93</t>
+          <t>-61,57; -22,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-61,19; -18,2</t>
+          <t>-39,36; -3,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,58; 24,09</t>
+          <t>-31,65; 5,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-37,57; -1,36</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-23,95; 18,12</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-65,64; -36,86</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-38,53; 3,88</t>
+          <t>-65,28; -36,59</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-26,08</t>
+          <t>-26,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-27,96</t>
+          <t>-29,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-29,64</t>
+          <t>-29,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-29,55</t>
+          <t>-24,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-24,71</t>
+          <t>-22,94</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-21,44</t>
+          <t>-27,4</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-27,29</t>
+          <t>-25,72</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-19,65</t>
+          <t>-26,17</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-25,43</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-24,9</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-28,53</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-24,75</t>
+          <t>-28,62</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-38,03; -14,31</t>
+          <t>-38,31; -12,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-39,79; -16,89</t>
+          <t>-40,33; -16,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-42,39; -15,26</t>
+          <t>-42,39; -14,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-41,76; -17,51</t>
+          <t>-33,97; -14,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-34,59; -14,5</t>
+          <t>-32,0; -13,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,36; -11,45</t>
+          <t>-36,04; -17,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-36,01; -17,33</t>
+          <t>-34,13; -17,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-29,99; -8,7</t>
+          <t>-34,17; -18,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-33,67; -17,58</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-32,13; -17,18</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-35,94; -19,68</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-33,1; -15,71</t>
+          <t>-36,66; -18,54</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-45,8%</t>
+          <t>-47,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-49,1%</t>
+          <t>-51,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-52,05%</t>
+          <t>-52,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-51,89%</t>
+          <t>-47,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-45,47%</t>
+          <t>-43,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-39,46%</t>
+          <t>-52,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-50,23%</t>
+          <t>-47,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-36,15%</t>
+          <t>-47,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-45,65%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-44,7%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-51,21%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-44,42%</t>
+          <t>-52,36%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-61,81; -26,18</t>
+          <t>-63,0; -24,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-63,81; -31,26</t>
+          <t>-64,32; -30,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-67,31; -26,0</t>
+          <t>-69,2; -25,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-67,9; -33,26</t>
+          <t>-59,82; -31,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,16; -28,61</t>
+          <t>-56,83; -29,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,76; -23,07</t>
+          <t>-63,87; -36,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-62,1; -33,8</t>
+          <t>-58,27; -33,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,72; -16,55</t>
+          <t>-57,76; -34,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-57,0; -32,99</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-54,53; -33,17</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-61,78; -37,06</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-55,07; -30,22</t>
+          <t>-62,78; -35,71</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-27,3</t>
+          <t>-28,62</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-25,33</t>
+          <t>-27,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-32,07</t>
+          <t>-33,97</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-30,02</t>
+          <t>-19,5</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-19,37</t>
+          <t>-19,42</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-17,02</t>
+          <t>-29,53</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-29,03</t>
+          <t>-24,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-17,8</t>
+          <t>-23,21</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-23,32</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-21,15</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-30,58</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>-23,97</t>
+          <t>-31,75</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-37,14; -14,26</t>
+          <t>-39,05; -17,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-34,7; -15,81</t>
+          <t>-36,46; -17,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-41,74; -21,11</t>
+          <t>-42,92; -23,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-39,59; -20,43</t>
+          <t>-27,6; -12,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,49; -11,28</t>
+          <t>-26,64; -11,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,12; -9,05</t>
+          <t>-36,1; -22,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-35,39; -21,68</t>
+          <t>-30,55; -17,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-25,19; -9,7</t>
+          <t>-28,64; -17,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-30,18; -16,1</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-27,02; -14,91</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-36,58; -24,74</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>-30,14; -17,49</t>
+          <t>-37,11; -25,45</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-46,34%</t>
+          <t>-48,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-42,99%</t>
+          <t>-45,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-54,44%</t>
+          <t>-57,65%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-50,96%</t>
+          <t>-39,77%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-38,97%</t>
+          <t>-39,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-34,24%</t>
+          <t>-60,23%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-58,38%</t>
+          <t>-44,52%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-35,79%</t>
+          <t>-43,05%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-42,96%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-38,96%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-56,32%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>-44,16%</t>
+          <t>-58,89%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-59,2; -24,93</t>
+          <t>-62,08; -30,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-54,78; -28,7</t>
+          <t>-57,32; -31,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-65,72; -39,27</t>
+          <t>-68,0; -42,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,07; -37,83</t>
+          <t>-51,07; -26,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-50,5; -24,39</t>
+          <t>-50,68; -25,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-45,66; -20,27</t>
+          <t>-68,54; -49,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-67,32; -48,1</t>
+          <t>-53,42; -33,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,9; -20,96</t>
+          <t>-50,67; -33,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-52,78; -31,26</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-47,9; -29,64</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-63,61; -47,7</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>-53,33; -34,25</t>
+          <t>-66,22; -49,88</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-27,18</t>
+          <t>-26,55</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-23,18</t>
+          <t>-24,29</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-31,0</t>
+          <t>-31,52</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-23,07</t>
+          <t>-29,1</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-27,66</t>
+          <t>-30,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-27,35</t>
+          <t>-36,95</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-37,03</t>
+          <t>-27,93</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-26,1</t>
+          <t>-27,3</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-27,48</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>-25,43</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>-34,17</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>-24,83</t>
+          <t>-34,39</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-35,68; -19,55</t>
+          <t>-34,62; -17,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-31,88; -15,06</t>
+          <t>-32,23; -15,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-39,49; -22,87</t>
+          <t>-38,72; -23,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-32,34; -13,98</t>
+          <t>-35,94; -21,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-34,49; -19,64</t>
+          <t>-37,08; -23,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-34,25; -19,38</t>
+          <t>-43,27; -29,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-43,08; -29,96</t>
+          <t>-33,46; -21,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-33,85; -17,36</t>
+          <t>-32,31; -22,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-33,81; -21,85</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>-31,25; -19,97</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>-38,96; -28,63</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>-30,54; -18,16</t>
+          <t>-39,44; -29,03</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-51,34%</t>
+          <t>-51,04%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-43,79%</t>
+          <t>-46,69%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-58,55%</t>
+          <t>-60,59%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-43,58%</t>
+          <t>-49,44%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-46,27%</t>
+          <t>-50,97%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-45,76%</t>
+          <t>-62,78%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-61,94%</t>
+          <t>-50,23%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-43,67%</t>
+          <t>-49,09%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-48,62%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>-44,99%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-60,45%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>-43,93%</t>
+          <t>-61,84%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-62,58; -38,3</t>
+          <t>-63,1; -36,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-55,75; -30,02</t>
+          <t>-58,23; -33,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-68,54; -46,81</t>
+          <t>-69,95; -48,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-57,01; -27,13</t>
+          <t>-58,97; -39,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-56,07; -35,45</t>
+          <t>-59,53; -41,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-54,62; -34,17</t>
+          <t>-69,79; -53,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-68,88; -52,35</t>
+          <t>-57,94; -40,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-54,1; -30,3</t>
+          <t>-55,53; -41,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-57,05; -39,93</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>-52,36; -37,04</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>-66,18; -52,88</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>-52,06; -33,88</t>
+          <t>-67,56; -55,11</t>
         </is>
       </c>
     </row>
@@ -1760,62 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-27,2</t>
+          <t>-26,98</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-36,96</t>
+          <t>-37,78</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-37,18</t>
+          <t>-37,66</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-37,7</t>
+          <t>-28,29</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-28,65</t>
+          <t>-33,73</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-30,87</t>
+          <t>-43,39</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-43,26</t>
+          <t>-27,59</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-39,58</t>
+          <t>-35,73</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-27,89</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>-33,99</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>-40,18</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>-38,48</t>
+          <t>-40,51</t>
         </is>
       </c>
     </row>
@@ -1828,62 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-36,38; -16,5</t>
+          <t>-36,56; -15,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-45,48; -28,21</t>
+          <t>-46,17; -28,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-46,19; -27,08</t>
+          <t>-45,88; -28,14</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-46,78; -28,17</t>
+          <t>-37,04; -19,27</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-38,52; -19,49</t>
+          <t>-42,15; -24,82</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-39,08; -21,02</t>
+          <t>-51,32; -35,39</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-50,99; -34,6</t>
+          <t>-33,94; -21,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-48,06; -30,39</t>
+          <t>-41,96; -30,05</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-34,26; -20,99</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>-40,03; -26,54</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>-46,23; -33,36</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>-45,65; -32,16</t>
+          <t>-46,14; -34,29</t>
         </is>
       </c>
     </row>
@@ -1896,62 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-48,64%</t>
+          <t>-48,94%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-66,1%</t>
+          <t>-68,54%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-66,49%</t>
+          <t>-68,31%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-67,41%</t>
+          <t>-46,93%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-46,37%</t>
+          <t>-55,95%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-49,98%</t>
+          <t>-71,97%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-70,03%</t>
+          <t>-47,83%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-64,06%</t>
+          <t>-61,93%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-47,42%</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>-57,8%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>-68,33%</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>-65,43%</t>
+          <t>-70,22%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-61,17; -33,14</t>
+          <t>-61,41; -30,83</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-75,32; -56,18</t>
+          <t>-76,92; -57,57</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-76,06; -53,61</t>
+          <t>-77,24; -56,39</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-77,92; -54,34</t>
+          <t>-57,46; -34,13</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-58,28; -34,08</t>
+          <t>-65,38; -44,79</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-60,09; -37,25</t>
+          <t>-79,81; -63,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-77,7; -60,46</t>
+          <t>-56,25; -38,77</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-73,21; -53,64</t>
+          <t>-68,28; -54,78</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-55,78; -37,86</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>-65,41; -49,18</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>-74,63; -60,73</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>-72,87; -57,32</t>
+          <t>-76,17; -63,21</t>
         </is>
       </c>
     </row>
@@ -2036,62 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-29,2</t>
+          <t>-29,17</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-29,01</t>
+          <t>-30,69</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-45,92</t>
+          <t>-43,59</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-35,83</t>
+          <t>-32,57</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-34,6</t>
+          <t>-33,77</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-32,49</t>
+          <t>-42,42</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-42,61</t>
+          <t>-31,11</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-37,96</t>
+          <t>-32,45</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-32,26</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>-31,01</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>-44,12</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>-37,05</t>
+          <t>-42,95</t>
         </is>
       </c>
     </row>
@@ -2104,62 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-39,85; -17,23</t>
+          <t>-38,67; -18,11</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-40,08; -15,84</t>
+          <t>-40,66; -20,44</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-53,93; -36,0</t>
+          <t>-51,41; -35,01</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-45,48; -25,62</t>
+          <t>-40,72; -24,01</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-43,6; -25,72</t>
+          <t>-42,09; -26,03</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-41,49; -23,84</t>
+          <t>-49,79; -32,07</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-51,31; -24,3</t>
+          <t>-36,61; -24,3</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-47,98; -26,96</t>
+          <t>-38,44; -26,4</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-38,85; -24,92</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>-37,46; -23,3</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>-50,28; -33,43</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>-43,39; -28,89</t>
+          <t>-48,91; -35,76</t>
         </is>
       </c>
     </row>
@@ -2172,62 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-51,99%</t>
+          <t>-54,45%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-51,65%</t>
+          <t>-57,29%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-81,74%</t>
+          <t>-81,37%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-63,79%</t>
+          <t>-57,21%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-56,61%</t>
+          <t>-59,31%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-53,16%</t>
+          <t>-74,5%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-69,72%</t>
+          <t>-56,07%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-62,1%</t>
+          <t>-58,48%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-54,69%</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>-52,59%</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>-74,81%</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
-        <is>
-          <t>-62,81%</t>
+          <t>-77,39%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-66,3; -30,55</t>
+          <t>-67,39; -35,57</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-66,99; -28,85</t>
+          <t>-70,06; -38,65</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-88,92; -70,03</t>
+          <t>-88,37; -69,55</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-75,08; -48,33</t>
+          <t>-67,92; -45,62</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-67,81; -44,57</t>
+          <t>-69,4; -48,36</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-64,05; -41,09</t>
+          <t>-83,45; -56,47</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-81,5; -37,76</t>
+          <t>-64,13; -45,96</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-75,37; -46,02</t>
+          <t>-66,0; -49,58</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-63,25; -43,94</t>
-        </is>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
-        <is>
-          <t>-61,35; -41,97</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="inlineStr">
-        <is>
-          <t>-83,15; -55,3</t>
-        </is>
-      </c>
-      <c r="N27" s="2" t="inlineStr">
-        <is>
-          <t>-71,6; -51,55</t>
+          <t>-83,58; -64,47</t>
         </is>
       </c>
     </row>
@@ -2312,62 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-25,01</t>
+          <t>-25,29</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-24,89</t>
+          <t>-26,5</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-33,17</t>
+          <t>-33,3</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-27,8</t>
+          <t>-24,24</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-24,1</t>
+          <t>-24,36</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-21,67</t>
+          <t>-33,52</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-33,28</t>
+          <t>-24,75</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-25,24</t>
+          <t>-25,41</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-24,55</t>
-        </is>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>-23,3</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="inlineStr">
-        <is>
-          <t>-33,23</t>
-        </is>
-      </c>
-      <c r="N28" s="2" t="inlineStr">
-        <is>
-          <t>-26,53</t>
+          <t>-33,41</t>
         </is>
       </c>
     </row>
@@ -2380,62 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-29,33; -19,78</t>
+          <t>-29,52; -20,77</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-29,3; -20,87</t>
+          <t>-30,35; -21,61</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-36,91; -28,03</t>
+          <t>-37,36; -28,93</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-31,84; -23,13</t>
+          <t>-28,06; -20,68</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-27,89; -20,7</t>
+          <t>-27,91; -20,92</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-25,24; -18,04</t>
+          <t>-36,98; -30,4</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-36,89; -29,26</t>
+          <t>-27,6; -22,07</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-29,24; -21,11</t>
+          <t>-27,95; -22,98</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-27,22; -21,5</t>
-        </is>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
-        <is>
-          <t>-25,98; -20,62</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="inlineStr">
-        <is>
-          <t>-35,86; -30,34</t>
-        </is>
-      </c>
-      <c r="N29" s="2" t="inlineStr">
-        <is>
-          <t>-29,37; -23,52</t>
+          <t>-36,08; -30,92</t>
         </is>
       </c>
     </row>
@@ -2448,62 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-46,33%</t>
+          <t>-47,56%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-46,11%</t>
+          <t>-49,84%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-61,44%</t>
+          <t>-62,64%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-51,49%</t>
+          <t>-45,66%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-44,07%</t>
+          <t>-45,9%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-39,62%</t>
+          <t>-63,15%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-60,86%</t>
+          <t>-46,59%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-46,15%</t>
+          <t>-47,83%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-45,18%</t>
-        </is>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>-42,87%</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>-61,14%</t>
-        </is>
-      </c>
-      <c r="N30" s="2" t="inlineStr">
-        <is>
-          <t>-48,82%</t>
+          <t>-62,9%</t>
         </is>
       </c>
     </row>
@@ -2516,76 +2087,68 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-52,85; -38,12</t>
+          <t>-53,54; -40,85</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-52,3; -39,66</t>
+          <t>-55,27; -42,22</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-66,78; -53,71</t>
+          <t>-68,02; -56,03</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-57,36; -44,29</t>
+          <t>-51,34; -39,98</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-49,72; -39,08</t>
+          <t>-50,95; -40,59</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-44,96; -34,02</t>
+          <t>-67,47; -58,68</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-65,07; -53,92</t>
+          <t>-50,79; -42,39</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-52,07; -39,52</t>
+          <t>-51,35; -44,13</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-49,02; -40,39</t>
-        </is>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
-        <is>
-          <t>-46,74; -38,71</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="inlineStr">
-        <is>
-          <t>-64,66; -56,74</t>
-        </is>
-      </c>
-      <c r="N31" s="2" t="inlineStr">
-        <is>
-          <t>-52,86; -44,05</t>
+          <t>-66,43; -59,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
